--- a/db/orderHistory.xlsx
+++ b/db/orderHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY CODES\POS_SYSTEM\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB244E1F-9B29-4B09-BB9C-0A1BC5EE2CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF8023D-4BE5-405C-AB9A-7C2B2C75DBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2790" windowWidth="27315" windowHeight="10695" xr2:uid="{F22ECE97-F047-4CBF-BF38-622D9D4BCF52}"/>
+    <workbookView xWindow="6930" yWindow="2205" windowWidth="18390" windowHeight="11775" xr2:uid="{F22ECE97-F047-4CBF-BF38-622D9D4BCF52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,30 +36,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>orderID</t>
   </si>
   <si>
-    <t>snacks</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>meal</t>
-  </si>
-  <si>
-    <t>ding</t>
-  </si>
-  <si>
-    <t>dong</t>
-  </si>
-  <si>
-    <t>dino</t>
+    <t>Thursday, May 15, 2025 09:41 AM</t>
+  </si>
+  <si>
+    <t>Jack n' Jill Nova</t>
+  </si>
+  <si>
+    <t>40g</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>1pc</t>
+  </si>
+  <si>
+    <t>Royal Mismo</t>
+  </si>
+  <si>
+    <t>295ml</t>
+  </si>
+  <si>
+    <t>Thursday, May 15, 2025 10:18 AM</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Sunday, May 18, 2025 05:07 PM</t>
+  </si>
+  <si>
+    <t>Vcute Asul</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Friday, May 09, 2025 09:41 AM</t>
   </si>
 </sst>
 </file>
@@ -98,7 +128,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,61 +464,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD46665-9E55-492F-90E2-6715ECC01747}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>518170711</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/db/orderHistory.xlsx
+++ b/db/orderHistory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY CODES\POS_SYSTEM\db\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>orderID</t>
   </si>
@@ -90,12 +90,37 @@
   </si>
   <si>
     <t>Friday, May 09, 2025 09:41 AM</t>
+  </si>
+  <si>
+    <t>Sunday, May 18, 2025 10:09 PM</t>
+  </si>
+  <si>
+    <t>Piattos Asul</t>
+  </si>
+  <si>
+    <t>Monday, May 19, 2025 12:27 AM</t>
+  </si>
+  <si>
+    <t>Jack n' Jill Piatos Cheese</t>
+  </si>
+  <si>
+    <t>Monday, May 19, 2025 12:36 AM</t>
+  </si>
+  <si>
+    <t>Hotdog in Bun</t>
+  </si>
+  <si>
+    <t>1 serving</t>
+  </si>
+  <si>
+    <t>Coke Mismo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD46665-9E55-492F-90E2-6715ECC01747}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -472,20 +497,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="30.0"/>
+    <col min="2" max="2" customWidth="true" style="1" width="36.140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="6.5703125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="5.42578125"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" style="1" width="8.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.5703125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.28515625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.140625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="8.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.42578125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.140625"/>
+    <col min="15" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,6 +713,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="1">
+        <v>5.18220924E8</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="F11" t="n" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n" s="1">
+        <v>5.19002737E8</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F12" t="n" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n" s="1">
+        <v>5.19003614E8</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F13" t="n" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n" s="1">
+        <v>5.19003614E8</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E14" t="n" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F14" t="n" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n" s="1">
+        <v>5.19003614E8</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F15" t="n" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/orderHistory.xlsx
+++ b/db/orderHistory.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY CODES\POS_SYSTEM\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF8023D-4BE5-405C-AB9A-7C2B2C75DBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A099C-1687-45B2-BB63-81B0E50FB993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6930" yWindow="2205" windowWidth="18390" windowHeight="11775" xr2:uid="{F22ECE97-F047-4CBF-BF38-622D9D4BCF52}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>orderID</t>
   </si>
@@ -92,35 +92,28 @@
     <t>Friday, May 09, 2025 09:41 AM</t>
   </si>
   <si>
-    <t>Sunday, May 18, 2025 10:09 PM</t>
-  </si>
-  <si>
-    <t>Piattos Asul</t>
-  </si>
-  <si>
-    <t>Monday, May 19, 2025 12:27 AM</t>
-  </si>
-  <si>
-    <t>Jack n' Jill Piatos Cheese</t>
-  </si>
-  <si>
-    <t>Monday, May 19, 2025 12:36 AM</t>
-  </si>
-  <si>
-    <t>Hotdog in Bun</t>
-  </si>
-  <si>
-    <t>1 serving</t>
-  </si>
-  <si>
-    <t>Coke Mismo</t>
+    <t>Sunday, March 18, 2025 05:07 PM</t>
+  </si>
+  <si>
+    <t>Friday, March 08, 2025 09:41 AM</t>
+  </si>
+  <si>
+    <t>Thursday, March 16, 2025 09:41 AM</t>
+  </si>
+  <si>
+    <t>Friday, April 07, 2025 09:41 AM</t>
+  </si>
+  <si>
+    <t>Thursday, April 14, 2025 09:41 AM</t>
+  </si>
+  <si>
+    <t>Sunday, April 19, 2025 05:07 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,28 +482,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD46665-9E55-492F-90E2-6715ECC01747}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="30.0"/>
-    <col min="2" max="2" customWidth="true" style="1" width="36.140625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.85546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="6.5703125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="5.42578125"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" style="1" width="8.140625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.5703125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.28515625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.140625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="8.140625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.42578125"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.140625"/>
-    <col min="15" max="16384" style="1" width="9.140625"/>
+    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,10 +528,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>308170711</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -555,10 +548,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>308170711</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -575,10 +568,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>308170711</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -595,10 +588,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>316170711</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -615,10 +608,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>316170711</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -635,19 +628,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>316170711</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -655,19 +648,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>318170711</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -675,19 +668,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
+        <v>407170711</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -695,122 +688,302 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>407170711</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>414170711</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>414170711</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>414181811</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>414192911</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <v>419192911</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>509170711</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>509170711</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>509170711</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>515170711</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>515170711</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>515170711</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>515170711</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>515170711</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B24" s="1">
         <v>518170711</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E24" s="1">
         <v>16</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n" s="1">
-        <v>5.18220924E8</v>
-      </c>
-      <c r="C11" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="E11" t="n" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="F11" t="n" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="B12" t="n" s="1">
-        <v>5.19002737E8</v>
-      </c>
-      <c r="C12" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="F12" t="n" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="B13" t="n" s="1">
-        <v>5.19003614E8</v>
-      </c>
-      <c r="C13" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" t="n" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="F13" t="n" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="B14" t="n" s="1">
-        <v>5.19003614E8</v>
-      </c>
-      <c r="C14" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="E14" t="n" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F14" t="n" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n" s="1">
-        <v>5.19003614E8</v>
-      </c>
-      <c r="C15" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="F15" t="n" s="1">
-        <v>1.0</v>
+      <c r="F24" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
